--- a/V2/Final-Project-Test-Cases.xlsx
+++ b/V2/Final-Project-Test-Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca.sharepoint.com/sites/CPR101SEP2023-Group3/Shared Documents/Group 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/adsmith6_myseneca_ca/Documents/CPR101/finalProject/project/git/CPR101group3/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{FFC6FA63-F955-4637-848C-72668EEFD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F60BB0-5947-44F5-861F-1E825E84645A}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{FFC6FA63-F955-4637-848C-72668EEFD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A380B67-3ECE-4C93-ABB0-8A89F57C4236}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
   <si>
     <t>Program
 or module:</t>
@@ -2645,6 +2645,24 @@
   </si>
   <si>
     <t>conversion</t>
+  </si>
+  <si>
+    <t>1. Input "Classroom"</t>
+  </si>
+  <si>
+    <t>phrase #1 'Classroom'</t>
+  </si>
+  <si>
+    <t>2. input "Classroom of the elite"</t>
+  </si>
+  <si>
+    <t>phrase #1 'Classroom' phrase #2 'of' phrase #3 'the' phrase #4 'elite'</t>
+  </si>
+  <si>
+    <t>3. input  "Class     room o   f theeeeeeeee elllllll ite"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phrase #1 'Class' phrae #2 'room' phrase #3 'o' phrase #4 'f' phrase #5 'theeeeeeeeeee' phrase #6 ' elllllllll' phrase #7 'ite'   </t>
   </si>
 </sst>
 </file>
@@ -3184,18 +3202,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3235,9 +3241,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3249,6 +3252,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3571,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3594,22 +3612,22 @@
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="28" t="s">
         <v>3</v>
       </c>
@@ -3929,18 +3947,18 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3976,7 +3994,9 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
@@ -3990,7 +4010,9 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
@@ -4004,7 +4026,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
     </row>
@@ -4015,16 +4039,18 @@
       <c r="B21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
@@ -4035,16 +4061,18 @@
       <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
@@ -4055,16 +4083,18 @@
       <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
     </row>
@@ -4075,10 +4105,16 @@
       <c r="B24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
     </row>
@@ -4089,10 +4125,16 @@
       <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
@@ -4103,10 +4145,16 @@
       <c r="B26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
     </row>
@@ -4117,7 +4165,7 @@
       <c r="B27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6">
@@ -4126,7 +4174,9 @@
       <c r="E27" s="6">
         <v>-1E-4</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
@@ -4137,7 +4187,7 @@
       <c r="B28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="6">
@@ -4146,7 +4196,9 @@
       <c r="E28" s="6">
         <v>5.1234500000000001</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
@@ -4157,27 +4209,29 @@
       <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="48">
         <v>9999999999</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="48">
         <v>9999999999</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="28" t="s">
         <v>3</v>
       </c>
@@ -4408,30 +4462,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="50" t="str">
+      <c r="C1" s="54" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As Manipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="40" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="27" t="s">
@@ -4457,137 +4511,137 @@
       <c r="F3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="40" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -4618,10 +4672,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4631,112 +4685,112 @@
         <v>64</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="38" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="40" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
@@ -4767,58 +4821,58 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="34"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="34"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="34"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="34"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4861,30 +4915,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="50" t="str">
+      <c r="C1" s="54" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As conversion_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="40" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="27" t="s">
@@ -4910,133 +4964,133 @@
       <c r="F3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="48">
         <v>1</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="48">
         <v>1</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="48">
         <v>-500</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="48">
         <v>-500</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="48">
         <v>0</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="40" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -5067,10 +5121,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="6">
@@ -5080,15 +5134,15 @@
         <v>-1E-4</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6">
@@ -5098,15 +5152,15 @@
         <v>5.1234500000000001</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="6">
@@ -5118,7 +5172,7 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="33" t="s">
         <v>91</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -5126,10 +5180,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="6">
@@ -5141,7 +5195,7 @@
       <c r="E15" s="6">
         <v>-99.123457000000002</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="33" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -5149,10 +5203,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5162,37 +5216,37 @@
         <v>0</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="48">
         <v>9999999999</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="40" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="27" t="s">
@@ -5223,58 +5277,58 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="34"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="34"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="34"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="34"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
